--- a/NewGUI/Data.xlsx
+++ b/NewGUI/Data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cycleuser/Documents/GeoCode/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cycleuser/Documents/GeoPython/DataFileSamples/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1012,10 +1012,13 @@
   <dimension ref="A1:BR9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" activeCellId="1" sqref="A1:BR9 H17"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="31.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:70" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
